--- a/Firmware_UNIV_3.1.2.1/rev1/univ_3-1-2-1-rev1-memory.xlsx
+++ b/Firmware_UNIV_3.1.2.1/rev1/univ_3-1-2-1-rev1-memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="15195" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="15195" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MEMORY MAP" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1652">
   <si>
     <t>000000h</t>
   </si>
@@ -4955,6 +4955,33 @@
   </si>
   <si>
     <t>Interrupt registers</t>
+  </si>
+  <si>
+    <t>Last used memory</t>
+  </si>
+  <si>
+    <t>EEPROM_U</t>
+  </si>
+  <si>
+    <t>Eeprom last used address</t>
+  </si>
+  <si>
+    <t>EEPROM_H</t>
+  </si>
+  <si>
+    <t>EEPROM_L</t>
+  </si>
+  <si>
+    <t>FLASH_U</t>
+  </si>
+  <si>
+    <t>Flash last used address</t>
+  </si>
+  <si>
+    <t>FLASH_H</t>
+  </si>
+  <si>
+    <t>FLASH_L</t>
   </si>
 </sst>
 </file>
@@ -5142,7 +5169,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5201,6 +5228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5417,7 +5450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5673,6 +5706,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -5681,9 +5738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -5703,26 +5757,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5740,6 +5776,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5793,26 +5847,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -5849,12 +5888,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6000,6 +6033,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6306,7 +6340,7 @@
   </sheetPr>
   <dimension ref="B1:M178"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -6327,11 +6361,11 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="107" t="s">
         <v>959</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="104" t="s">
         <v>952</v>
       </c>
       <c r="E2" s="40"/>
@@ -6339,7 +6373,7 @@
       <c r="H2" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="109" t="s">
         <v>267</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -6347,76 +6381,76 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="99"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
       <c r="H3" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="101"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="99"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="111"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="H4" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="101"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="99"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="111"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="101"/>
+      <c r="I5" s="109"/>
       <c r="M5" s="28"/>
     </row>
     <row r="6" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="99"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="40"/>
-      <c r="D6" s="111"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="101"/>
+      <c r="I6" s="109"/>
       <c r="M6" s="28"/>
     </row>
     <row r="7" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="99"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="111"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="40"/>
       <c r="F7" s="41"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="101"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="1" t="s">
         <v>328</v>
       </c>
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="99"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="111"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="40"/>
       <c r="F8" s="41"/>
       <c r="H8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="102" t="s">
         <v>956</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -6425,131 +6459,131 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="99"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="111"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="40"/>
       <c r="F9" s="41"/>
       <c r="H9" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="I9" s="109"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="1" t="s">
         <v>330</v>
       </c>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="111"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="40"/>
       <c r="F10" s="41"/>
       <c r="H10" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="109"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="1" t="s">
         <v>331</v>
       </c>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="99"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="111"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="40"/>
       <c r="F11" s="41"/>
       <c r="H11" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="109"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="1" t="s">
         <v>332</v>
       </c>
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="111"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
       <c r="H12" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="I12" s="109"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="1" t="s">
         <v>333</v>
       </c>
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="111"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="40"/>
       <c r="F13" s="41"/>
       <c r="H13" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="1" t="s">
         <v>334</v>
       </c>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="111"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="40"/>
       <c r="F14" s="41"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="109"/>
+      <c r="I14" s="102"/>
       <c r="M14" s="28"/>
     </row>
     <row r="15" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="111"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="109"/>
+      <c r="I15" s="102"/>
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="99"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="111"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="40"/>
       <c r="F16" s="41"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="109"/>
+      <c r="I16" s="102"/>
       <c r="M16" s="28"/>
     </row>
     <row r="17" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="99"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="40"/>
-      <c r="D17" s="111"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="40"/>
       <c r="F17" s="41"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="109"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="1" t="s">
         <v>259</v>
       </c>
       <c r="M17" s="28"/>
     </row>
     <row r="18" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="99"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="111"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="109" t="s">
         <v>955</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -6557,101 +6591,101 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="99"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="40"/>
-      <c r="D19" s="111"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="40"/>
       <c r="F19" s="41"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="101"/>
+      <c r="I19" s="109"/>
     </row>
     <row r="20" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="99"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="111"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="40"/>
       <c r="F20" s="41"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="101"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="99"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="40"/>
-      <c r="D21" s="111"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="40"/>
       <c r="F21" s="41"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="101"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="99"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="111"/>
+      <c r="D22" s="105"/>
       <c r="E22" s="40"/>
       <c r="F22" s="41"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="101"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="99"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="111"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="40"/>
       <c r="F23" s="41"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="101"/>
+      <c r="I23" s="109"/>
     </row>
     <row r="24" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="99"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="111"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="101"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="99"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="40"/>
-      <c r="D25" s="111"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="40"/>
       <c r="F25" s="41"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="101"/>
+      <c r="I25" s="109"/>
     </row>
     <row r="26" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="111"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="40"/>
       <c r="F26" s="41"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="101"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="99"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="111"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="40"/>
       <c r="F27" s="41"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="101"/>
+      <c r="I27" s="109"/>
       <c r="J27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="99"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="111"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="110" t="s">
+      <c r="F28" s="104" t="s">
         <v>891</v>
       </c>
-      <c r="H28" s="113" t="s">
+      <c r="H28" s="99" t="s">
         <v>891</v>
       </c>
-      <c r="I28" s="101" t="s">
+      <c r="I28" s="109" t="s">
         <v>954</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -6659,99 +6693,99 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="99"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="111"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="111"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="101"/>
+      <c r="F29" s="105"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="109"/>
     </row>
     <row r="30" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="99"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="111"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="111"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="101"/>
+      <c r="F30" s="105"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="109"/>
     </row>
     <row r="31" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="99"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="111"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="111"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="101"/>
+      <c r="F31" s="105"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="109"/>
     </row>
     <row r="32" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="99"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="111"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="111"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="101"/>
+      <c r="F32" s="105"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="109"/>
     </row>
     <row r="33" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="99"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="111"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="111"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="101"/>
+      <c r="F33" s="105"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="109"/>
     </row>
     <row r="34" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="99"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="111"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="111"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="101"/>
+      <c r="F34" s="105"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="109"/>
     </row>
     <row r="35" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="99"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="111"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="111"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="101"/>
+      <c r="F35" s="105"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="99"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="111"/>
+      <c r="D36" s="105"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="111"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="101"/>
+      <c r="F36" s="105"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="99"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="111"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="111"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="101"/>
+      <c r="F37" s="105"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="109"/>
       <c r="J37" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="99"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="111"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="40"/>
-      <c r="F38" s="111"/>
-      <c r="H38" s="113" t="s">
+      <c r="F38" s="105"/>
+      <c r="H38" s="99" t="s">
         <v>891</v>
       </c>
-      <c r="I38" s="109" t="s">
+      <c r="I38" s="102" t="s">
         <v>953</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -6759,117 +6793,117 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="99"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="111"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="111"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="109"/>
+      <c r="F39" s="105"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="102"/>
     </row>
     <row r="40" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="99"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="111"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="40"/>
-      <c r="F40" s="111"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="109"/>
+      <c r="F40" s="105"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="102"/>
     </row>
     <row r="41" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="99"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="111"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="40"/>
-      <c r="F41" s="111"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="109"/>
+      <c r="F41" s="105"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="102"/>
     </row>
     <row r="42" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="99"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="111"/>
+      <c r="D42" s="105"/>
       <c r="E42" s="40"/>
-      <c r="F42" s="111"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="109"/>
+      <c r="F42" s="105"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="102"/>
     </row>
     <row r="43" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="99"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="111"/>
+      <c r="D43" s="105"/>
       <c r="E43" s="40"/>
-      <c r="F43" s="111"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="109"/>
+      <c r="F43" s="105"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="99"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="111"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="40"/>
-      <c r="F44" s="111"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="109"/>
+      <c r="F44" s="105"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="102"/>
     </row>
     <row r="45" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="99"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="40"/>
-      <c r="D45" s="111"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="40"/>
-      <c r="F45" s="111"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="109"/>
+      <c r="F45" s="105"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="102"/>
     </row>
     <row r="46" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="99"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="111"/>
+      <c r="D46" s="105"/>
       <c r="E46" s="40"/>
-      <c r="F46" s="111"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="109"/>
+      <c r="F46" s="105"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="102"/>
     </row>
     <row r="47" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="99"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="112"/>
+      <c r="D47" s="106"/>
       <c r="E47" s="40"/>
-      <c r="F47" s="112"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="109"/>
+      <c r="F47" s="106"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="102"/>
       <c r="J47" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="99"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="40"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="41"/>
-      <c r="H48" s="102" t="s">
+      <c r="H48" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="I48" s="102"/>
+      <c r="I48" s="103"/>
       <c r="J48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="99"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="40"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="41"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
       <c r="J49" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="99"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="40"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -6877,7 +6911,7 @@
       <c r="H50" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I50" s="103" t="s">
+      <c r="I50" s="110" t="s">
         <v>273</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -6885,7 +6919,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="99"/>
+      <c r="B51" s="107"/>
       <c r="C51" s="40"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -6893,10 +6927,10 @@
       <c r="H51" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="I51" s="104"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="99"/>
+      <c r="B52" s="107"/>
       <c r="C52" s="40"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -6904,10 +6938,10 @@
       <c r="H52" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="I52" s="104"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="99"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="40"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -6915,10 +6949,10 @@
       <c r="H53" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="I53" s="104"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="99"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="40"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -6926,10 +6960,10 @@
       <c r="H54" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="104"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="99"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="40"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -6937,10 +6971,10 @@
       <c r="H55" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="I55" s="104"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="99"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="40"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -6948,10 +6982,10 @@
       <c r="H56" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="I56" s="104"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="99"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="40"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -6959,39 +6993,39 @@
       <c r="H57" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="I57" s="105"/>
+      <c r="I57" s="112"/>
       <c r="J57" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="99"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="40"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="41"/>
-      <c r="H58" s="102" t="s">
+      <c r="H58" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="102"/>
+      <c r="I58" s="103"/>
       <c r="J58" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="99"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="40"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="41"/>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
       <c r="J59" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="99"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="40"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -6999,7 +7033,7 @@
       <c r="H60" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="I60" s="106" t="s">
+      <c r="I60" s="113" t="s">
         <v>253</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -7007,7 +7041,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="99"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="40"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -7015,10 +7049,10 @@
       <c r="H61" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="I61" s="107"/>
+      <c r="I61" s="114"/>
     </row>
     <row r="62" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="99"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="40"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -7026,10 +7060,10 @@
       <c r="H62" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="I62" s="107"/>
+      <c r="I62" s="114"/>
     </row>
     <row r="63" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="99"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="40"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -7037,10 +7071,10 @@
       <c r="H63" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I63" s="107"/>
+      <c r="I63" s="114"/>
     </row>
     <row r="64" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="99"/>
+      <c r="B64" s="107"/>
       <c r="C64" s="40"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -7048,10 +7082,10 @@
       <c r="H64" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="I64" s="107"/>
+      <c r="I64" s="114"/>
     </row>
     <row r="65" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="99"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="40"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -7059,10 +7093,10 @@
       <c r="H65" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I65" s="107"/>
+      <c r="I65" s="114"/>
     </row>
     <row r="66" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="99"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="40"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -7070,10 +7104,10 @@
       <c r="H66" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="I66" s="107"/>
+      <c r="I66" s="114"/>
     </row>
     <row r="67" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="99"/>
+      <c r="B67" s="107"/>
       <c r="C67" s="40"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -7081,10 +7115,10 @@
       <c r="H67" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I67" s="107"/>
+      <c r="I67" s="114"/>
     </row>
     <row r="68" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="99"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="40"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -7092,10 +7126,10 @@
       <c r="H68" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="I68" s="107"/>
+      <c r="I68" s="114"/>
     </row>
     <row r="69" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="99"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="40"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -7103,10 +7137,10 @@
       <c r="H69" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="I69" s="107"/>
+      <c r="I69" s="114"/>
     </row>
     <row r="70" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="99"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="40"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -7114,10 +7148,10 @@
       <c r="H70" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I70" s="107"/>
+      <c r="I70" s="114"/>
     </row>
     <row r="71" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="99"/>
+      <c r="B71" s="107"/>
       <c r="C71" s="40"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -7125,39 +7159,39 @@
       <c r="H71" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="108"/>
+      <c r="I71" s="115"/>
       <c r="J71" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="99"/>
+      <c r="B72" s="107"/>
       <c r="C72" s="40"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="41"/>
-      <c r="H72" s="102" t="s">
+      <c r="H72" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="102"/>
+      <c r="I72" s="103"/>
       <c r="J72" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="99"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="40"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="41"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="102"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
       <c r="J73" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="99"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="40"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -7165,7 +7199,7 @@
       <c r="H74" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="I74" s="103" t="s">
+      <c r="I74" s="110" t="s">
         <v>262</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -7173,7 +7207,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="99"/>
+      <c r="B75" s="107"/>
       <c r="C75" s="40"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -7181,7 +7215,7 @@
       <c r="H75" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I75" s="105"/>
+      <c r="I75" s="112"/>
       <c r="J75" s="1" t="s">
         <v>252</v>
       </c>
@@ -7192,10 +7226,10 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="41"/>
-      <c r="H76" s="102" t="s">
+      <c r="H76" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="I76" s="102"/>
+      <c r="I76" s="103"/>
       <c r="J76" s="1" t="s">
         <v>957</v>
       </c>
@@ -7206,24 +7240,24 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="41"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="102"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
       <c r="J77" s="1" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="99" t="s">
+      <c r="B78" s="107" t="s">
         <v>254</v>
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="41"/>
-      <c r="H78" s="100" t="s">
+      <c r="H78" s="108" t="s">
         <v>891</v>
       </c>
-      <c r="I78" s="101" t="s">
+      <c r="I78" s="109" t="s">
         <v>960</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -7231,43 +7265,43 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="99"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="40"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="41"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="101"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="109"/>
     </row>
     <row r="80" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="99"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="101"/>
+      <c r="B80" s="107"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="109"/>
     </row>
     <row r="81" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="99"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="101"/>
+      <c r="B81" s="107"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="109"/>
     </row>
     <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="99"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="101"/>
+      <c r="B82" s="107"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="109"/>
     </row>
     <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="99"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="101"/>
+      <c r="B83" s="107"/>
+      <c r="H83" s="108"/>
+      <c r="I83" s="109"/>
     </row>
     <row r="84" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="99"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="101"/>
+      <c r="B84" s="107"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="109"/>
     </row>
     <row r="85" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="99"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="101"/>
+      <c r="B85" s="107"/>
+      <c r="H85" s="108"/>
+      <c r="I85" s="109"/>
       <c r="J85" s="1" t="s">
         <v>775</v>
       </c>
@@ -7553,6 +7587,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I18:I27"/>
+    <mergeCell ref="F28:F47"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="I28:I37"/>
     <mergeCell ref="H38:H47"/>
     <mergeCell ref="I38:I47"/>
     <mergeCell ref="H76:I77"/>
@@ -7569,10 +7607,6 @@
     <mergeCell ref="B2:B75"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="I8:I17"/>
-    <mergeCell ref="I18:I27"/>
-    <mergeCell ref="F28:F47"/>
-    <mergeCell ref="H28:H37"/>
-    <mergeCell ref="I28:I37"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
@@ -7670,86 +7704,86 @@
         <f>DEC2HEX(HEX2DEC("008000"),6)</f>
         <v>008000</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="129" t="s">
         <v>1438</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="124"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="131"/>
       <c r="R5" s="89" t="str">
         <f>DEC2HEX(HEX2DEC("00800F"),6)</f>
         <v>00800F</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="127"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="134"/>
     </row>
     <row r="7" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="127"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="134"/>
     </row>
     <row r="8" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+1008,6)</f>
         <v>0083F0</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R5)+1008,6)</f>
         <v>0083FF</v>
@@ -7760,24 +7794,24 @@
         <f>DEC2HEX(HEX2DEC(A8)+16,6)</f>
         <v>008400</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="129" t="s">
         <v>1439</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="124"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="131"/>
       <c r="R9" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R8)+16,6)</f>
         <v>00840F</v>
@@ -7785,42 +7819,42 @@
     </row>
     <row r="10" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7828,22 +7862,22 @@
         <f>DEC2HEX(HEX2DEC(A9)+1008,6)</f>
         <v>0087F0</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="130"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="137"/>
       <c r="R12" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R9)+1008,6)</f>
         <v>0087FF</v>
@@ -7854,24 +7888,24 @@
         <f>DEC2HEX(HEX2DEC(A12)+16,6)</f>
         <v>008800</v>
       </c>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="138" t="s">
         <v>1440</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="133"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
       <c r="R13" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R12)+16,6)</f>
         <v>00880F</v>
@@ -7882,22 +7916,22 @@
         <f>DEC2HEX(HEX2DEC(A13)+16,6)</f>
         <v>008810</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="136"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="143"/>
       <c r="R14" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R13)+16,6)</f>
         <v>00881F</v>
@@ -7908,24 +7942,24 @@
         <f t="shared" ref="A15:A28" si="0">DEC2HEX(HEX2DEC(A14)+16,6)</f>
         <v>008820</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="129" t="s">
         <v>1441</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="124"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
       <c r="R15" s="89" t="str">
         <f t="shared" ref="R15:R28" si="1">DEC2HEX(HEX2DEC(R14)+16,6)</f>
         <v>00882F</v>
@@ -7936,22 +7970,22 @@
         <f t="shared" si="0"/>
         <v>008830</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="137"/>
       <c r="R16" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00883F</v>
@@ -7962,24 +7996,24 @@
         <f t="shared" si="0"/>
         <v>008840</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="138" t="s">
         <v>1442</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="133"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="140"/>
       <c r="R17" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00884F</v>
@@ -7990,22 +8024,22 @@
         <f t="shared" si="0"/>
         <v>008850</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="143"/>
       <c r="R18" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00885F</v>
@@ -8016,24 +8050,24 @@
         <f t="shared" si="0"/>
         <v>008860</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="129" t="s">
         <v>1443</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="124"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
       <c r="R19" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00886F</v>
@@ -8045,22 +8079,22 @@
         <f t="shared" si="0"/>
         <v>008870</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="130"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="137"/>
       <c r="R20" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00887F</v>
@@ -8071,24 +8105,24 @@
         <f t="shared" si="0"/>
         <v>008880</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="138" t="s">
         <v>1444</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="133"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="140"/>
       <c r="R21" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00888F</v>
@@ -8099,22 +8133,22 @@
         <f t="shared" si="0"/>
         <v>008890</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="136"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="143"/>
       <c r="R22" s="89" t="str">
         <f t="shared" si="1"/>
         <v>00889F</v>
@@ -8125,24 +8159,24 @@
         <f t="shared" si="0"/>
         <v>0088A0</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="129" t="s">
         <v>1445</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="124"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="131"/>
       <c r="R23" s="89" t="str">
         <f t="shared" si="1"/>
         <v>0088AF</v>
@@ -8153,22 +8187,22 @@
         <f t="shared" si="0"/>
         <v>0088B0</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="130"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="137"/>
       <c r="R24" s="89" t="str">
         <f t="shared" si="1"/>
         <v>0088BF</v>
@@ -8179,24 +8213,24 @@
         <f t="shared" si="0"/>
         <v>0088C0</v>
       </c>
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="138" t="s">
         <v>1446</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="133"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="140"/>
       <c r="R25" s="89" t="str">
         <f t="shared" si="1"/>
         <v>0088CF</v>
@@ -8207,22 +8241,22 @@
         <f t="shared" si="0"/>
         <v>0088D0</v>
       </c>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="136"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="143"/>
       <c r="R26" s="89" t="str">
         <f t="shared" si="1"/>
         <v>0088DF</v>
@@ -8233,24 +8267,24 @@
         <f t="shared" si="0"/>
         <v>0088E0</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="129" t="s">
         <v>1447</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="124"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
       <c r="R27" s="89" t="str">
         <f t="shared" si="1"/>
         <v>0088EF</v>
@@ -8261,38 +8295,38 @@
         <f t="shared" si="0"/>
         <v>0088F0</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="130"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
       <c r="R28" s="89" t="str">
         <f t="shared" si="1"/>
         <v>0088FF</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I29" s="137" t="s">
+      <c r="I29" s="144" t="s">
         <v>1429</v>
       </c>
-      <c r="J29" s="137"/>
+      <c r="J29" s="144"/>
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8300,24 +8334,24 @@
         <f>DEC2HEX(HEX2DEC(A28)+3824,6)</f>
         <v>0097E0</v>
       </c>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="129" t="s">
         <v>1448</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="124"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
       <c r="R31" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R28)+3824,6)</f>
         <v>0097EF</v>
@@ -8328,22 +8362,22 @@
         <f>DEC2HEX(HEX2DEC(A31)+16,6)</f>
         <v>0097F0</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="130"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="137"/>
       <c r="R32" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R31)+16,6)</f>
         <v>0097FF</v>
@@ -8391,24 +8425,24 @@
         <f>DEC2HEX(HEX2DEC("008400"),6)</f>
         <v>008400</v>
       </c>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="117" t="s">
         <v>1549</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="119"/>
       <c r="R37" s="89" t="str">
         <f>DEC2HEX(HEX2DEC("00840F"),6)</f>
         <v>00840F</v>
@@ -8419,22 +8453,22 @@
         <f>DEC2HEX(HEX2DEC(A37)+16,6)</f>
         <v>008410</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="121"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="122"/>
       <c r="R38" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(R37)+16,6)</f>
         <v>00841F</v>
@@ -8445,24 +8479,24 @@
         <f t="shared" ref="A39:A52" si="2">DEC2HEX(HEX2DEC(A38)+16,6)</f>
         <v>008420</v>
       </c>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="117" t="s">
         <v>1550</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="119"/>
       <c r="R39" s="89" t="str">
         <f t="shared" ref="R39:R52" si="3">DEC2HEX(HEX2DEC(R38)+16,6)</f>
         <v>00842F</v>
@@ -8473,22 +8507,22 @@
         <f t="shared" si="2"/>
         <v>008430</v>
       </c>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="121"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="122"/>
       <c r="R40" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00843F</v>
@@ -8499,24 +8533,24 @@
         <f t="shared" si="2"/>
         <v>008440</v>
       </c>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="117" t="s">
         <v>1551</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="119"/>
       <c r="R41" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00844F</v>
@@ -8527,22 +8561,22 @@
         <f t="shared" si="2"/>
         <v>008450</v>
       </c>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="121"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="122"/>
       <c r="R42" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00845F</v>
@@ -8553,24 +8587,24 @@
         <f t="shared" si="2"/>
         <v>008460</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="117" t="s">
         <v>1552</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="119"/>
       <c r="R43" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00846F</v>
@@ -8581,22 +8615,22 @@
         <f t="shared" si="2"/>
         <v>008470</v>
       </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="121"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="122"/>
       <c r="R44" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00847F</v>
@@ -8607,24 +8641,24 @@
         <f t="shared" si="2"/>
         <v>008480</v>
       </c>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>1553</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="118"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="119"/>
       <c r="R45" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00848F</v>
@@ -8635,22 +8669,22 @@
         <f t="shared" si="2"/>
         <v>008490</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="121"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="122"/>
       <c r="R46" s="89" t="str">
         <f t="shared" si="3"/>
         <v>00849F</v>
@@ -8661,24 +8695,24 @@
         <f t="shared" si="2"/>
         <v>0084A0</v>
       </c>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="117" t="s">
         <v>1554</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="119"/>
       <c r="R47" s="89" t="str">
         <f t="shared" si="3"/>
         <v>0084AF</v>
@@ -8689,22 +8723,22 @@
         <f t="shared" si="2"/>
         <v>0084B0</v>
       </c>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="121"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="122"/>
       <c r="R48" s="89" t="str">
         <f t="shared" si="3"/>
         <v>0084BF</v>
@@ -8715,24 +8749,24 @@
         <f t="shared" si="2"/>
         <v>0084C0</v>
       </c>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="117" t="s">
         <v>1563</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="117"/>
-      <c r="M49" s="117"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="117"/>
-      <c r="P49" s="117"/>
-      <c r="Q49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="119"/>
       <c r="R49" s="89" t="str">
         <f t="shared" si="3"/>
         <v>0084CF</v>
@@ -8743,22 +8777,22 @@
         <f t="shared" si="2"/>
         <v>0084D0</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="121"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="122"/>
       <c r="R50" s="89" t="str">
         <f t="shared" si="3"/>
         <v>0084DF</v>
@@ -8769,24 +8803,24 @@
         <f t="shared" si="2"/>
         <v>0084E0</v>
       </c>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="141"/>
-      <c r="M51" s="141"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="141"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="142"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="124"/>
+      <c r="Q51" s="125"/>
       <c r="R51" s="89" t="str">
         <f t="shared" si="3"/>
         <v>0084EF</v>
@@ -8797,22 +8831,22 @@
         <f t="shared" si="2"/>
         <v>0084F0</v>
       </c>
-      <c r="B52" s="143"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="144"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="144"/>
-      <c r="P52" s="144"/>
-      <c r="Q52" s="145"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="127"/>
+      <c r="P52" s="127"/>
+      <c r="Q52" s="128"/>
       <c r="R52" s="89" t="str">
         <f t="shared" si="3"/>
         <v>0084FF</v>
@@ -8982,24 +9016,24 @@
       <c r="M62" s="52" t="s">
         <v>1416</v>
       </c>
-      <c r="O62" s="139" t="s">
+      <c r="O62" s="116" t="s">
         <v>1566</v>
       </c>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="139"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
     </row>
     <row r="63" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O63" s="139"/>
-      <c r="P63" s="139"/>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="139"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
     </row>
     <row r="64" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O64" s="139"/>
-      <c r="P64" s="139"/>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="139"/>
+      <c r="O64" s="116"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="116"/>
+      <c r="R64" s="116"/>
     </row>
     <row r="65" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="52" t="s">
@@ -9038,58 +9072,58 @@
       <c r="M65" s="52" t="s">
         <v>1428</v>
       </c>
-      <c r="O65" s="139" t="s">
+      <c r="O65" s="116" t="s">
         <v>1567</v>
       </c>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
     </row>
     <row r="66" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O66" s="139"/>
-      <c r="P66" s="139"/>
-      <c r="Q66" s="139"/>
-      <c r="R66" s="139"/>
+      <c r="O66" s="116"/>
+      <c r="P66" s="116"/>
+      <c r="Q66" s="116"/>
+      <c r="R66" s="116"/>
     </row>
     <row r="67" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O67" s="139"/>
-      <c r="P67" s="139"/>
-      <c r="Q67" s="139"/>
-      <c r="R67" s="139"/>
+      <c r="O67" s="116"/>
+      <c r="P67" s="116"/>
+      <c r="Q67" s="116"/>
+      <c r="R67" s="116"/>
     </row>
     <row r="68" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M68" s="139" t="s">
+      <c r="M68" s="116" t="s">
         <v>1568</v>
       </c>
-      <c r="N68" s="139"/>
-      <c r="O68" s="139"/>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="139"/>
-      <c r="R68" s="139"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="116"/>
+      <c r="R68" s="116"/>
     </row>
     <row r="69" spans="2:18" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
+      <c r="M69" s="116"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="116"/>
+      <c r="R69" s="116"/>
     </row>
     <row r="70" spans="2:18" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="M70" s="139"/>
-      <c r="N70" s="139"/>
-      <c r="O70" s="139"/>
-      <c r="P70" s="139"/>
-      <c r="Q70" s="139"/>
-      <c r="R70" s="139"/>
+      <c r="M70" s="116"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="116"/>
+      <c r="R70" s="116"/>
     </row>
     <row r="71" spans="2:18" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="M71" s="139"/>
-      <c r="N71" s="139"/>
-      <c r="O71" s="139"/>
-      <c r="P71" s="139"/>
-      <c r="Q71" s="139"/>
-      <c r="R71" s="139"/>
+      <c r="M71" s="116"/>
+      <c r="N71" s="116"/>
+      <c r="O71" s="116"/>
+      <c r="P71" s="116"/>
+      <c r="Q71" s="116"/>
+      <c r="R71" s="116"/>
     </row>
     <row r="72" spans="2:18" ht="11.25" x14ac:dyDescent="0.2">
       <c r="M72" s="96"/>
@@ -9124,33 +9158,33 @@
       <c r="I73" s="52" t="s">
         <v>1404</v>
       </c>
-      <c r="O73" s="139" t="s">
+      <c r="O73" s="116" t="s">
         <v>1569</v>
       </c>
-      <c r="P73" s="139"/>
-      <c r="Q73" s="139"/>
-      <c r="R73" s="139"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="116"/>
+      <c r="R73" s="116"/>
     </row>
     <row r="74" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O74" s="139"/>
-      <c r="P74" s="139"/>
-      <c r="Q74" s="139"/>
-      <c r="R74" s="139"/>
+      <c r="O74" s="116"/>
+      <c r="P74" s="116"/>
+      <c r="Q74" s="116"/>
+      <c r="R74" s="116"/>
     </row>
     <row r="75" spans="2:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O75" s="139"/>
-      <c r="P75" s="139"/>
-      <c r="Q75" s="139"/>
-      <c r="R75" s="139"/>
+      <c r="O75" s="116"/>
+      <c r="P75" s="116"/>
+      <c r="Q75" s="116"/>
+      <c r="R75" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M68:R71"/>
-    <mergeCell ref="O73:R75"/>
-    <mergeCell ref="B49:Q50"/>
-    <mergeCell ref="B51:Q52"/>
-    <mergeCell ref="O62:R64"/>
-    <mergeCell ref="O65:R67"/>
+    <mergeCell ref="B47:Q48"/>
+    <mergeCell ref="B37:Q38"/>
+    <mergeCell ref="B39:Q40"/>
+    <mergeCell ref="B41:Q42"/>
+    <mergeCell ref="B43:Q44"/>
+    <mergeCell ref="B45:Q46"/>
     <mergeCell ref="B5:Q8"/>
     <mergeCell ref="B9:Q12"/>
     <mergeCell ref="B31:Q32"/>
@@ -9163,12 +9197,12 @@
     <mergeCell ref="B25:Q26"/>
     <mergeCell ref="B27:Q28"/>
     <mergeCell ref="I29:J30"/>
-    <mergeCell ref="B47:Q48"/>
-    <mergeCell ref="B37:Q38"/>
-    <mergeCell ref="B39:Q40"/>
-    <mergeCell ref="B41:Q42"/>
-    <mergeCell ref="B43:Q44"/>
-    <mergeCell ref="B45:Q46"/>
+    <mergeCell ref="M68:R71"/>
+    <mergeCell ref="O73:R75"/>
+    <mergeCell ref="B49:Q50"/>
+    <mergeCell ref="B51:Q52"/>
+    <mergeCell ref="O62:R64"/>
+    <mergeCell ref="O65:R67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -9185,8 +9219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U266"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9235,8 +9269,8 @@
       <c r="B3" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="146" t="s">
-        <v>777</v>
+      <c r="C3" s="148" t="s">
+        <v>1643</v>
       </c>
       <c r="D3" s="74"/>
       <c r="E3" s="67"/>
@@ -9253,15 +9287,17 @@
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="85" t="str">
-        <f t="shared" ref="A4:A13" si="0">DEC2HEX(HEX2DEC(A3)+1,6)</f>
+        <f t="shared" ref="A4:A9" si="0">DEC2HEX(HEX2DEC(A3)+1,6)</f>
         <v>F00002</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="147"/>
+      <c r="B4" s="208" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C4" s="149"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="67"/>
+      <c r="E4" s="67" t="s">
+        <v>1645</v>
+      </c>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
@@ -9278,10 +9314,10 @@
         <f t="shared" si="0"/>
         <v>F00003</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="147"/>
+      <c r="B5" s="208" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C5" s="149"/>
       <c r="D5" s="74"/>
       <c r="E5" s="66"/>
       <c r="F5" s="74"/>
@@ -9300,10 +9336,10 @@
         <f t="shared" si="0"/>
         <v>F00004</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="147"/>
+      <c r="B6" s="208" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C6" s="149"/>
       <c r="D6" s="74"/>
       <c r="E6" s="66"/>
       <c r="F6" s="74"/>
@@ -9323,11 +9359,13 @@
         <v>F00005</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="147"/>
+        <v>1648</v>
+      </c>
+      <c r="C7" s="149"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="66"/>
+      <c r="E7" s="66" t="s">
+        <v>1649</v>
+      </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
@@ -9345,9 +9383,9 @@
         <v>F00006</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="147"/>
+        <v>1650</v>
+      </c>
+      <c r="C8" s="149"/>
       <c r="D8" s="74"/>
       <c r="E8" s="66"/>
       <c r="F8" s="74"/>
@@ -9367,9 +9405,9 @@
         <v>F00007</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="147"/>
+        <v>1651</v>
+      </c>
+      <c r="C9" s="149"/>
       <c r="D9" s="74"/>
       <c r="E9" s="66"/>
       <c r="F9" s="74"/>
@@ -9385,13 +9423,13 @@
     </row>
     <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A13" si="1">DEC2HEX(HEX2DEC(A9)+1,6)</f>
         <v>F00008</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>1270</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="150" t="s">
         <v>307</v>
       </c>
       <c r="D10" s="74"/>
@@ -9411,13 +9449,13 @@
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00009</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>1271</v>
       </c>
-      <c r="C11" s="149"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="74"/>
       <c r="E11" s="66" t="s">
         <v>1558</v>
@@ -9435,13 +9473,13 @@
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F0000A</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>1272</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="74"/>
       <c r="E12" s="66" t="s">
         <v>1559</v>
@@ -9459,13 +9497,13 @@
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F0000B</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>1273</v>
       </c>
-      <c r="C13" s="149"/>
+      <c r="C13" s="151"/>
       <c r="D13" s="74"/>
       <c r="E13" s="66" t="s">
         <v>1560</v>
@@ -9483,13 +9521,13 @@
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86" t="str">
-        <f t="shared" ref="A14:A65" si="1">DEC2HEX(HEX2DEC(A13)+1,6)</f>
+        <f t="shared" ref="A14:A65" si="2">DEC2HEX(HEX2DEC(A13)+1,6)</f>
         <v>F0000C</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>1274</v>
       </c>
-      <c r="C14" s="149"/>
+      <c r="C14" s="151"/>
       <c r="D14" s="74"/>
       <c r="E14" s="66" t="s">
         <v>1561</v>
@@ -9507,13 +9545,13 @@
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0000D</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>1275</v>
       </c>
-      <c r="C15" s="149"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="74"/>
       <c r="E15" s="66" t="s">
         <v>1562</v>
@@ -9531,13 +9569,13 @@
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0000E</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>1276</v>
       </c>
-      <c r="C16" s="149"/>
+      <c r="C16" s="151"/>
       <c r="D16" s="74"/>
       <c r="E16" s="66" t="s">
         <v>1612</v>
@@ -9555,13 +9593,13 @@
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0000F</v>
       </c>
       <c r="B17" s="70" t="s">
         <v>1277</v>
       </c>
-      <c r="C17" s="150"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="74"/>
       <c r="E17" s="66"/>
       <c r="F17" s="74"/>
@@ -9577,13 +9615,13 @@
     </row>
     <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00010</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>1278</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="153" t="s">
         <v>307</v>
       </c>
       <c r="D18" s="74"/>
@@ -9601,13 +9639,13 @@
     </row>
     <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00011</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>1279</v>
       </c>
-      <c r="C19" s="152"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="74"/>
       <c r="E19" s="66"/>
       <c r="F19" s="74"/>
@@ -9623,13 +9661,13 @@
     </row>
     <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00012</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="152"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="74"/>
       <c r="E20" s="66"/>
       <c r="F20" s="74"/>
@@ -9646,13 +9684,13 @@
     </row>
     <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00013</v>
       </c>
       <c r="B21" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="C21" s="152"/>
+      <c r="C21" s="154"/>
       <c r="D21" s="74"/>
       <c r="E21" s="66"/>
       <c r="F21" s="74"/>
@@ -9669,13 +9707,13 @@
     </row>
     <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00014</v>
       </c>
       <c r="B22" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="C22" s="152"/>
+      <c r="C22" s="154"/>
       <c r="D22" s="74"/>
       <c r="E22" s="66"/>
       <c r="F22" s="74"/>
@@ -9692,13 +9730,13 @@
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00015</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="154"/>
       <c r="D23" s="74"/>
       <c r="E23" s="66"/>
       <c r="F23" s="74"/>
@@ -9715,13 +9753,13 @@
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00016</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="C24" s="152"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="74"/>
       <c r="E24" s="66" t="s">
         <v>1623</v>
@@ -9741,13 +9779,13 @@
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00017</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="C25" s="153"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="74"/>
       <c r="E25" s="98" t="s">
         <v>1614</v>
@@ -9767,13 +9805,13 @@
     </row>
     <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00018</v>
       </c>
       <c r="B26" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="150" t="s">
         <v>307</v>
       </c>
       <c r="D26" s="74"/>
@@ -9795,13 +9833,13 @@
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00019</v>
       </c>
       <c r="B27" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="C27" s="149"/>
+      <c r="C27" s="151"/>
       <c r="D27" s="74"/>
       <c r="E27" s="98" t="s">
         <v>1616</v>
@@ -9821,13 +9859,13 @@
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0001A</v>
       </c>
       <c r="B28" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="C28" s="149"/>
+      <c r="C28" s="151"/>
       <c r="D28" s="74"/>
       <c r="E28" s="98" t="s">
         <v>1617</v>
@@ -9847,13 +9885,13 @@
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0001B</v>
       </c>
       <c r="B29" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="C29" s="149"/>
+      <c r="C29" s="151"/>
       <c r="D29" s="74"/>
       <c r="E29" s="98" t="s">
         <v>1618</v>
@@ -9873,13 +9911,13 @@
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0001C</v>
       </c>
       <c r="B30" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="C30" s="149"/>
+      <c r="C30" s="151"/>
       <c r="D30" s="74"/>
       <c r="E30" s="98" t="s">
         <v>1619</v>
@@ -9899,13 +9937,13 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0001D</v>
       </c>
       <c r="B31" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="C31" s="149"/>
+      <c r="C31" s="151"/>
       <c r="D31" s="74"/>
       <c r="E31" s="66" t="s">
         <v>1620</v>
@@ -9925,13 +9963,13 @@
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0001E</v>
       </c>
       <c r="B32" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="C32" s="149"/>
+      <c r="C32" s="151"/>
       <c r="D32" s="74"/>
       <c r="E32" s="98" t="s">
         <v>1621</v>
@@ -9951,13 +9989,13 @@
     </row>
     <row r="33" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0001F</v>
       </c>
       <c r="B33" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="150"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="74"/>
       <c r="E33" s="98" t="s">
         <v>1622</v>
@@ -9977,13 +10015,13 @@
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00020</v>
       </c>
       <c r="B34" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="157" t="s">
+      <c r="C34" s="159" t="s">
         <v>777</v>
       </c>
       <c r="D34" s="74"/>
@@ -10002,13 +10040,13 @@
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00021</v>
       </c>
       <c r="B35" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="157"/>
+      <c r="C35" s="159"/>
       <c r="D35" s="74"/>
       <c r="E35" s="74"/>
       <c r="F35" s="74"/>
@@ -10025,13 +10063,13 @@
     </row>
     <row r="36" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00022</v>
       </c>
       <c r="B36" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="157"/>
+      <c r="C36" s="159"/>
       <c r="D36" s="74"/>
       <c r="E36" s="74"/>
       <c r="F36" s="74"/>
@@ -10048,13 +10086,13 @@
     </row>
     <row r="37" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00023</v>
       </c>
       <c r="B37" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="157"/>
+      <c r="C37" s="159"/>
       <c r="D37" s="74"/>
       <c r="E37" s="74"/>
       <c r="F37" s="74"/>
@@ -10071,13 +10109,13 @@
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00024</v>
       </c>
       <c r="B38" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C38" s="157"/>
+      <c r="C38" s="159"/>
       <c r="D38" s="74"/>
       <c r="E38" s="74"/>
       <c r="F38" s="74"/>
@@ -10094,13 +10132,13 @@
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00025</v>
       </c>
       <c r="B39" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="157"/>
+      <c r="C39" s="159"/>
       <c r="D39" s="74"/>
       <c r="E39" s="74"/>
       <c r="F39" s="74"/>
@@ -10117,13 +10155,13 @@
     </row>
     <row r="40" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00026</v>
       </c>
       <c r="B40" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="154" t="s">
+      <c r="C40" s="156" t="s">
         <v>262</v>
       </c>
       <c r="D40" s="74"/>
@@ -10144,13 +10182,13 @@
     </row>
     <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00027</v>
       </c>
       <c r="B41" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="C41" s="156"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="74"/>
       <c r="E41" s="66" t="s">
         <v>1291</v>
@@ -10169,13 +10207,13 @@
     </row>
     <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00028</v>
       </c>
       <c r="B42" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="153" t="s">
         <v>1450</v>
       </c>
       <c r="D42" s="74"/>
@@ -10194,13 +10232,13 @@
     </row>
     <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00029</v>
       </c>
       <c r="B43" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="152"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="74"/>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
@@ -10217,13 +10255,13 @@
     </row>
     <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0002A</v>
       </c>
       <c r="B44" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="152"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="74"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -10240,13 +10278,13 @@
     </row>
     <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0002B</v>
       </c>
       <c r="B45" s="73" t="s">
         <v>1256</v>
       </c>
-      <c r="C45" s="152"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="74"/>
       <c r="E45" s="66" t="s">
         <v>1283</v>
@@ -10265,13 +10303,13 @@
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0002C</v>
       </c>
       <c r="B46" s="73" t="s">
         <v>1255</v>
       </c>
-      <c r="C46" s="152"/>
+      <c r="C46" s="154"/>
       <c r="D46" s="74"/>
       <c r="E46" s="66" t="s">
         <v>1282</v>
@@ -10290,13 +10328,13 @@
     </row>
     <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0002D</v>
       </c>
       <c r="B47" s="73" t="s">
         <v>1257</v>
       </c>
-      <c r="C47" s="152"/>
+      <c r="C47" s="154"/>
       <c r="D47" s="74"/>
       <c r="E47" s="66" t="s">
         <v>1284</v>
@@ -10315,13 +10353,13 @@
     </row>
     <row r="48" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0002E</v>
       </c>
       <c r="B48" s="73" t="s">
         <v>1258</v>
       </c>
-      <c r="C48" s="152"/>
+      <c r="C48" s="154"/>
       <c r="D48" s="74"/>
       <c r="E48" s="66" t="s">
         <v>1285</v>
@@ -10340,13 +10378,13 @@
     </row>
     <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0002F</v>
       </c>
       <c r="B49" s="73" t="s">
         <v>1259</v>
       </c>
-      <c r="C49" s="153"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="74"/>
       <c r="E49" s="66" t="s">
         <v>1286</v>
@@ -10365,13 +10403,13 @@
     </row>
     <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00030</v>
       </c>
       <c r="B50" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="154" t="s">
+      <c r="C50" s="156" t="s">
         <v>306</v>
       </c>
       <c r="D50" s="74"/>
@@ -10390,13 +10428,13 @@
     </row>
     <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00031</v>
       </c>
       <c r="B51" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="155"/>
+      <c r="C51" s="157"/>
       <c r="D51" s="74"/>
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
@@ -10413,13 +10451,13 @@
     </row>
     <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00032</v>
       </c>
       <c r="B52" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="155"/>
+      <c r="C52" s="157"/>
       <c r="D52" s="74"/>
       <c r="E52" s="74"/>
       <c r="F52" s="74"/>
@@ -10436,13 +10474,13 @@
     </row>
     <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00033</v>
       </c>
       <c r="B53" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="155"/>
+      <c r="C53" s="157"/>
       <c r="D53" s="74"/>
       <c r="E53" s="74"/>
       <c r="F53" s="74"/>
@@ -10459,13 +10497,13 @@
     </row>
     <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00034</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="C54" s="155"/>
+      <c r="C54" s="157"/>
       <c r="D54" s="74"/>
       <c r="E54" s="74"/>
       <c r="F54" s="74"/>
@@ -10482,13 +10520,13 @@
     </row>
     <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00035</v>
       </c>
       <c r="B55" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="C55" s="155"/>
+      <c r="C55" s="157"/>
       <c r="D55" s="74"/>
       <c r="E55" s="74"/>
       <c r="F55" s="74"/>
@@ -10505,13 +10543,13 @@
     </row>
     <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00036</v>
       </c>
       <c r="B56" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="C56" s="155"/>
+      <c r="C56" s="157"/>
       <c r="D56" s="74"/>
       <c r="E56" s="74"/>
       <c r="F56" s="74"/>
@@ -10528,13 +10566,13 @@
     </row>
     <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00037</v>
       </c>
       <c r="B57" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="155"/>
+      <c r="C57" s="157"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
@@ -10551,13 +10589,13 @@
     </row>
     <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00038</v>
       </c>
       <c r="B58" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="C58" s="155"/>
+      <c r="C58" s="157"/>
       <c r="D58" s="74"/>
       <c r="E58" s="74"/>
       <c r="F58" s="74"/>
@@ -10574,13 +10612,13 @@
     </row>
     <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F00039</v>
       </c>
       <c r="B59" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="C59" s="155"/>
+      <c r="C59" s="157"/>
       <c r="D59" s="74"/>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
@@ -10597,13 +10635,13 @@
     </row>
     <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0003A</v>
       </c>
       <c r="B60" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="C60" s="155"/>
+      <c r="C60" s="157"/>
       <c r="D60" s="74"/>
       <c r="E60" s="74"/>
       <c r="F60" s="74"/>
@@ -10620,13 +10658,13 @@
     </row>
     <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0003B</v>
       </c>
       <c r="B61" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C61" s="155"/>
+      <c r="C61" s="157"/>
       <c r="D61" s="74"/>
       <c r="E61" s="74"/>
       <c r="F61" s="74"/>
@@ -10643,13 +10681,13 @@
     </row>
     <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0003C</v>
       </c>
       <c r="B62" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="155"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="74"/>
       <c r="E62" s="74"/>
       <c r="F62" s="74"/>
@@ -10666,13 +10704,13 @@
     </row>
     <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0003D</v>
       </c>
       <c r="B63" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="C63" s="155"/>
+      <c r="C63" s="157"/>
       <c r="D63" s="74"/>
       <c r="E63" s="74"/>
       <c r="F63" s="74"/>
@@ -10689,13 +10727,13 @@
     </row>
     <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0003E</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="155"/>
+      <c r="C64" s="157"/>
       <c r="D64" s="74"/>
       <c r="E64" s="74"/>
       <c r="F64" s="74"/>
@@ -10712,13 +10750,13 @@
     </row>
     <row r="65" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F0003F</v>
       </c>
       <c r="B65" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="C65" s="156"/>
+      <c r="C65" s="158"/>
       <c r="D65" s="74"/>
       <c r="E65" s="74"/>
       <c r="F65" s="74"/>
@@ -10777,7 +10815,7 @@
       <c r="B69" s="68" t="s">
         <v>1287</v>
       </c>
-      <c r="C69" s="151" t="s">
+      <c r="C69" s="153" t="s">
         <v>1449</v>
       </c>
       <c r="E69" s="64" t="s">
@@ -10810,13 +10848,13 @@
     </row>
     <row r="70" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="86" t="str">
-        <f t="shared" ref="A70:A132" si="2">DEC2HEX(HEX2DEC(A69)+1,6)</f>
+        <f t="shared" ref="A70:A132" si="3">DEC2HEX(HEX2DEC(A69)+1,6)</f>
         <v>F00041</v>
       </c>
       <c r="B70" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="C70" s="152"/>
+      <c r="C70" s="154"/>
       <c r="D70"/>
       <c r="E70" s="56"/>
       <c r="F70" s="56"/>
@@ -10829,13 +10867,13 @@
     </row>
     <row r="71" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00042</v>
       </c>
       <c r="B71" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="C71" s="152"/>
+      <c r="C71" s="154"/>
       <c r="D71"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56"/>
@@ -10845,13 +10883,13 @@
     </row>
     <row r="72" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00043</v>
       </c>
       <c r="B72" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="C72" s="152"/>
+      <c r="C72" s="154"/>
       <c r="D72"/>
       <c r="E72" s="56"/>
       <c r="F72" s="56"/>
@@ -10861,13 +10899,13 @@
     </row>
     <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00044</v>
       </c>
       <c r="B73" s="69" t="s">
         <v>409</v>
       </c>
-      <c r="C73" s="152"/>
+      <c r="C73" s="154"/>
       <c r="D73"/>
       <c r="E73" s="56"/>
       <c r="F73" s="56"/>
@@ -10877,13 +10915,13 @@
     </row>
     <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00045</v>
       </c>
       <c r="B74" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="C74" s="152"/>
+      <c r="C74" s="154"/>
       <c r="D74"/>
       <c r="E74" s="56"/>
       <c r="F74" s="56"/>
@@ -10893,13 +10931,13 @@
     </row>
     <row r="75" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00046</v>
       </c>
       <c r="B75" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="C75" s="152"/>
+      <c r="C75" s="154"/>
       <c r="D75"/>
       <c r="E75" s="56"/>
       <c r="F75" s="56"/>
@@ -10909,13 +10947,13 @@
     </row>
     <row r="76" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00047</v>
       </c>
       <c r="B76" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="C76" s="152"/>
+      <c r="C76" s="154"/>
       <c r="D76"/>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
@@ -10925,13 +10963,13 @@
     </row>
     <row r="77" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00048</v>
       </c>
       <c r="B77" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="C77" s="152"/>
+      <c r="C77" s="154"/>
       <c r="D77"/>
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
@@ -10941,13 +10979,13 @@
     </row>
     <row r="78" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00049</v>
       </c>
       <c r="B78" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="C78" s="152"/>
+      <c r="C78" s="154"/>
       <c r="D78"/>
       <c r="E78" s="56"/>
       <c r="F78" s="56"/>
@@ -10957,13 +10995,13 @@
     </row>
     <row r="79" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0004A</v>
       </c>
       <c r="B79" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="C79" s="152"/>
+      <c r="C79" s="154"/>
       <c r="D79"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
@@ -10973,13 +11011,13 @@
     </row>
     <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0004B</v>
       </c>
       <c r="B80" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="C80" s="152"/>
+      <c r="C80" s="154"/>
       <c r="D80"/>
       <c r="E80" s="56"/>
       <c r="F80" s="56"/>
@@ -10989,13 +11027,13 @@
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0004C</v>
       </c>
       <c r="B81" s="68" t="s">
         <v>1396</v>
       </c>
-      <c r="C81" s="152"/>
+      <c r="C81" s="154"/>
       <c r="D81"/>
       <c r="E81" s="56"/>
       <c r="F81" s="56"/>
@@ -11005,13 +11043,13 @@
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0004D</v>
       </c>
       <c r="B82" s="68" t="s">
         <v>1397</v>
       </c>
-      <c r="C82" s="152"/>
+      <c r="C82" s="154"/>
       <c r="D82"/>
       <c r="E82" s="56"/>
       <c r="F82" s="56"/>
@@ -11021,13 +11059,13 @@
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0004E</v>
       </c>
       <c r="B83" s="68" t="s">
         <v>1398</v>
       </c>
-      <c r="C83" s="152"/>
+      <c r="C83" s="154"/>
       <c r="D83"/>
       <c r="E83" s="56"/>
       <c r="F83" s="56"/>
@@ -11037,20 +11075,20 @@
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0004F</v>
       </c>
       <c r="B84" s="68" t="s">
         <v>1399</v>
       </c>
-      <c r="C84" s="152"/>
+      <c r="C84" s="154"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00050</v>
       </c>
-      <c r="B85" s="158" t="s">
+      <c r="B85" s="146" t="s">
         <v>1596</v>
       </c>
       <c r="C85" s="83"/>
@@ -11060,10 +11098,10 @@
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00051</v>
       </c>
-      <c r="B86" s="159"/>
+      <c r="B86" s="147"/>
       <c r="C86" s="78"/>
       <c r="E86" s="66" t="s">
         <v>1573</v>
@@ -11071,10 +11109,10 @@
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00052</v>
       </c>
-      <c r="B87" s="158" t="s">
+      <c r="B87" s="146" t="s">
         <v>1597</v>
       </c>
       <c r="C87" s="78"/>
@@ -11089,10 +11127,10 @@
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00053</v>
       </c>
-      <c r="B88" s="159"/>
+      <c r="B88" s="147"/>
       <c r="C88" s="78"/>
       <c r="D88"/>
       <c r="E88" s="66" t="s">
@@ -11105,10 +11143,10 @@
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00054</v>
       </c>
-      <c r="B89" s="158" t="s">
+      <c r="B89" s="146" t="s">
         <v>1598</v>
       </c>
       <c r="C89" s="78"/>
@@ -11123,10 +11161,10 @@
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00055</v>
       </c>
-      <c r="B90" s="159"/>
+      <c r="B90" s="147"/>
       <c r="C90" s="78"/>
       <c r="D90"/>
       <c r="E90" s="66" t="s">
@@ -11139,10 +11177,10 @@
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00056</v>
       </c>
-      <c r="B91" s="158" t="s">
+      <c r="B91" s="146" t="s">
         <v>1599</v>
       </c>
       <c r="C91" s="78"/>
@@ -11157,10 +11195,10 @@
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00057</v>
       </c>
-      <c r="B92" s="159"/>
+      <c r="B92" s="147"/>
       <c r="C92" s="78"/>
       <c r="D92"/>
       <c r="E92" s="66" t="s">
@@ -11173,10 +11211,10 @@
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00058</v>
       </c>
-      <c r="B93" s="158" t="s">
+      <c r="B93" s="146" t="s">
         <v>1600</v>
       </c>
       <c r="C93" s="78"/>
@@ -11191,10 +11229,10 @@
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00059</v>
       </c>
-      <c r="B94" s="159"/>
+      <c r="B94" s="147"/>
       <c r="C94" s="78"/>
       <c r="D94"/>
       <c r="E94" s="66" t="s">
@@ -11207,10 +11245,10 @@
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0005A</v>
       </c>
-      <c r="B95" s="158" t="s">
+      <c r="B95" s="146" t="s">
         <v>1601</v>
       </c>
       <c r="C95" s="78"/>
@@ -11225,10 +11263,10 @@
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0005B</v>
       </c>
-      <c r="B96" s="159"/>
+      <c r="B96" s="147"/>
       <c r="C96" s="78"/>
       <c r="D96"/>
       <c r="E96" s="66" t="s">
@@ -11241,10 +11279,10 @@
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0005C</v>
       </c>
-      <c r="B97" s="158" t="s">
+      <c r="B97" s="146" t="s">
         <v>1602</v>
       </c>
       <c r="C97" s="78"/>
@@ -11259,10 +11297,10 @@
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0005D</v>
       </c>
-      <c r="B98" s="159"/>
+      <c r="B98" s="147"/>
       <c r="C98" s="78"/>
       <c r="D98"/>
       <c r="E98" s="66" t="s">
@@ -11275,10 +11313,10 @@
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0005E</v>
       </c>
-      <c r="B99" s="158" t="s">
+      <c r="B99" s="146" t="s">
         <v>1603</v>
       </c>
       <c r="C99" s="78"/>
@@ -11293,10 +11331,10 @@
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0005F</v>
       </c>
-      <c r="B100" s="159"/>
+      <c r="B100" s="147"/>
       <c r="C100" s="78"/>
       <c r="D100"/>
       <c r="E100" s="66" t="s">
@@ -11309,10 +11347,10 @@
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00060</v>
       </c>
-      <c r="B101" s="158" t="s">
+      <c r="B101" s="146" t="s">
         <v>1604</v>
       </c>
       <c r="C101" s="78"/>
@@ -11327,10 +11365,10 @@
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00061</v>
       </c>
-      <c r="B102" s="159"/>
+      <c r="B102" s="147"/>
       <c r="C102" s="78"/>
       <c r="D102"/>
       <c r="E102" s="66" t="s">
@@ -11343,10 +11381,10 @@
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00062</v>
       </c>
-      <c r="B103" s="158" t="s">
+      <c r="B103" s="146" t="s">
         <v>1605</v>
       </c>
       <c r="C103" s="78"/>
@@ -11361,10 +11399,10 @@
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00063</v>
       </c>
-      <c r="B104" s="159"/>
+      <c r="B104" s="147"/>
       <c r="C104" s="78"/>
       <c r="D104"/>
       <c r="E104" s="66" t="s">
@@ -11377,10 +11415,10 @@
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00064</v>
       </c>
-      <c r="B105" s="158" t="s">
+      <c r="B105" s="146" t="s">
         <v>1606</v>
       </c>
       <c r="C105" s="78"/>
@@ -11395,10 +11433,10 @@
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00065</v>
       </c>
-      <c r="B106" s="159"/>
+      <c r="B106" s="147"/>
       <c r="C106" s="78"/>
       <c r="D106"/>
       <c r="E106" s="66" t="s">
@@ -11411,10 +11449,10 @@
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00066</v>
       </c>
-      <c r="B107" s="158" t="s">
+      <c r="B107" s="146" t="s">
         <v>1607</v>
       </c>
       <c r="C107" s="78"/>
@@ -11429,10 +11467,10 @@
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00067</v>
       </c>
-      <c r="B108" s="159"/>
+      <c r="B108" s="147"/>
       <c r="C108" s="78"/>
       <c r="D108"/>
       <c r="E108" s="66" t="s">
@@ -11445,7 +11483,7 @@
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00068</v>
       </c>
       <c r="B109" s="69"/>
@@ -11459,7 +11497,7 @@
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00069</v>
       </c>
       <c r="B110" s="69"/>
@@ -11473,7 +11511,7 @@
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0006A</v>
       </c>
       <c r="B111" s="69"/>
@@ -11487,7 +11525,7 @@
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0006B</v>
       </c>
       <c r="B112" s="69"/>
@@ -11501,7 +11539,7 @@
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0006C</v>
       </c>
       <c r="B113" s="69"/>
@@ -11515,7 +11553,7 @@
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0006D</v>
       </c>
       <c r="B114" s="69"/>
@@ -11529,7 +11567,7 @@
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0006E</v>
       </c>
       <c r="B115" s="69"/>
@@ -11543,7 +11581,7 @@
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0006F</v>
       </c>
       <c r="B116" s="69"/>
@@ -11557,7 +11595,7 @@
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00070</v>
       </c>
       <c r="B117" s="69"/>
@@ -11571,7 +11609,7 @@
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00071</v>
       </c>
       <c r="B118" s="69"/>
@@ -11585,7 +11623,7 @@
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00072</v>
       </c>
       <c r="B119" s="69"/>
@@ -11599,7 +11637,7 @@
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00073</v>
       </c>
       <c r="B120" s="69"/>
@@ -11613,7 +11651,7 @@
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00074</v>
       </c>
       <c r="B121" s="69"/>
@@ -11627,7 +11665,7 @@
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00075</v>
       </c>
       <c r="B122" s="69"/>
@@ -11641,7 +11679,7 @@
     </row>
     <row r="123" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00076</v>
       </c>
       <c r="B123" s="69"/>
@@ -11655,7 +11693,7 @@
     </row>
     <row r="124" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00077</v>
       </c>
       <c r="B124" s="69"/>
@@ -11669,7 +11707,7 @@
     </row>
     <row r="125" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00078</v>
       </c>
       <c r="B125" s="69"/>
@@ -11683,7 +11721,7 @@
     </row>
     <row r="126" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F00079</v>
       </c>
       <c r="B126" s="69"/>
@@ -11697,7 +11735,7 @@
     </row>
     <row r="127" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0007A</v>
       </c>
       <c r="B127" s="69"/>
@@ -11711,7 +11749,7 @@
     </row>
     <row r="128" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0007B</v>
       </c>
       <c r="B128" s="69"/>
@@ -11725,7 +11763,7 @@
     </row>
     <row r="129" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0007C</v>
       </c>
       <c r="B129" s="69"/>
@@ -11739,7 +11777,7 @@
     </row>
     <row r="130" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0007D</v>
       </c>
       <c r="B130" s="69"/>
@@ -11753,7 +11791,7 @@
     </row>
     <row r="131" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0007E</v>
       </c>
       <c r="B131" s="69"/>
@@ -11767,7 +11805,7 @@
     </row>
     <row r="132" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F0007F</v>
       </c>
       <c r="B132" s="69"/>
@@ -11804,7 +11842,7 @@
     </row>
     <row r="137" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="86" t="str">
-        <f t="shared" ref="A137:A199" si="3">DEC2HEX(HEX2DEC(A136)+1,6)</f>
+        <f t="shared" ref="A137:A199" si="4">DEC2HEX(HEX2DEC(A136)+1,6)</f>
         <v>F00081</v>
       </c>
       <c r="B137" s="70" t="s">
@@ -11822,7 +11860,7 @@
     </row>
     <row r="138" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00082</v>
       </c>
       <c r="B138" s="70" t="s">
@@ -11840,7 +11878,7 @@
     </row>
     <row r="139" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00083</v>
       </c>
       <c r="B139" s="70" t="s">
@@ -11858,7 +11896,7 @@
     </row>
     <row r="140" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00084</v>
       </c>
       <c r="B140" s="70" t="s">
@@ -11876,7 +11914,7 @@
     </row>
     <row r="141" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00085</v>
       </c>
       <c r="B141" s="70" t="s">
@@ -11894,7 +11932,7 @@
     </row>
     <row r="142" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00086</v>
       </c>
       <c r="B142" s="70" t="s">
@@ -11912,7 +11950,7 @@
     </row>
     <row r="143" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00087</v>
       </c>
       <c r="B143" s="70" t="s">
@@ -11928,7 +11966,7 @@
     </row>
     <row r="144" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00088</v>
       </c>
       <c r="B144" s="70" t="s">
@@ -11944,7 +11982,7 @@
     </row>
     <row r="145" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00089</v>
       </c>
       <c r="B145" s="70" t="s">
@@ -11960,7 +11998,7 @@
     </row>
     <row r="146" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0008A</v>
       </c>
       <c r="B146" s="70" t="s">
@@ -11976,7 +12014,7 @@
     </row>
     <row r="147" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0008B</v>
       </c>
       <c r="B147" s="69"/>
@@ -11990,7 +12028,7 @@
     </row>
     <row r="148" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0008C</v>
       </c>
       <c r="B148" s="69"/>
@@ -12004,7 +12042,7 @@
     </row>
     <row r="149" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0008D</v>
       </c>
       <c r="B149" s="69"/>
@@ -12018,7 +12056,7 @@
     </row>
     <row r="150" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0008E</v>
       </c>
       <c r="B150" s="69"/>
@@ -12032,7 +12070,7 @@
     </row>
     <row r="151" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0008F</v>
       </c>
       <c r="B151" s="69"/>
@@ -12049,7 +12087,7 @@
     </row>
     <row r="152" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00090</v>
       </c>
       <c r="B152" s="69"/>
@@ -12066,7 +12104,7 @@
     </row>
     <row r="153" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00091</v>
       </c>
       <c r="B153" s="69"/>
@@ -12083,7 +12121,7 @@
     </row>
     <row r="154" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00092</v>
       </c>
       <c r="B154" s="69"/>
@@ -12100,7 +12138,7 @@
     </row>
     <row r="155" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00093</v>
       </c>
       <c r="B155" s="69"/>
@@ -12117,7 +12155,7 @@
     </row>
     <row r="156" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00094</v>
       </c>
       <c r="B156" s="69"/>
@@ -12134,7 +12172,7 @@
     </row>
     <row r="157" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00095</v>
       </c>
       <c r="B157" s="69"/>
@@ -12151,7 +12189,7 @@
     </row>
     <row r="158" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00096</v>
       </c>
       <c r="B158" s="69"/>
@@ -12165,7 +12203,7 @@
     </row>
     <row r="159" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00097</v>
       </c>
       <c r="B159" s="69"/>
@@ -12179,7 +12217,7 @@
     </row>
     <row r="160" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00098</v>
       </c>
       <c r="B160" s="69"/>
@@ -12191,7 +12229,7 @@
     </row>
     <row r="161" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F00099</v>
       </c>
       <c r="B161" s="69"/>
@@ -12204,7 +12242,7 @@
     </row>
     <row r="162" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0009A</v>
       </c>
       <c r="B162" s="69"/>
@@ -12218,7 +12256,7 @@
     </row>
     <row r="163" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0009B</v>
       </c>
       <c r="B163" s="69"/>
@@ -12232,7 +12270,7 @@
     </row>
     <row r="164" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0009C</v>
       </c>
       <c r="B164" s="69"/>
@@ -12246,7 +12284,7 @@
     </row>
     <row r="165" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0009D</v>
       </c>
       <c r="B165" s="69"/>
@@ -12260,7 +12298,7 @@
     </row>
     <row r="166" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0009E</v>
       </c>
       <c r="B166" s="69"/>
@@ -12274,7 +12312,7 @@
     </row>
     <row r="167" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F0009F</v>
       </c>
       <c r="B167" s="69"/>
@@ -12288,7 +12326,7 @@
     </row>
     <row r="168" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A0</v>
       </c>
       <c r="B168" s="69"/>
@@ -12302,7 +12340,7 @@
     </row>
     <row r="169" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A1</v>
       </c>
       <c r="B169" s="69"/>
@@ -12316,7 +12354,7 @@
     </row>
     <row r="170" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A2</v>
       </c>
       <c r="B170" s="69"/>
@@ -12330,7 +12368,7 @@
     </row>
     <row r="171" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A3</v>
       </c>
       <c r="B171" s="69"/>
@@ -12344,7 +12382,7 @@
     </row>
     <row r="172" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A4</v>
       </c>
       <c r="B172" s="69"/>
@@ -12358,7 +12396,7 @@
     </row>
     <row r="173" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A5</v>
       </c>
       <c r="B173" s="69"/>
@@ -12372,7 +12410,7 @@
     </row>
     <row r="174" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A6</v>
       </c>
       <c r="B174" s="69"/>
@@ -12386,7 +12424,7 @@
     </row>
     <row r="175" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A7</v>
       </c>
       <c r="B175" s="69"/>
@@ -12400,7 +12438,7 @@
     </row>
     <row r="176" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A8</v>
       </c>
       <c r="B176" s="69"/>
@@ -12414,7 +12452,7 @@
     </row>
     <row r="177" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000A9</v>
       </c>
       <c r="B177" s="69"/>
@@ -12428,7 +12466,7 @@
     </row>
     <row r="178" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000AA</v>
       </c>
       <c r="B178" s="69"/>
@@ -12442,7 +12480,7 @@
     </row>
     <row r="179" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000AB</v>
       </c>
       <c r="B179" s="69"/>
@@ -12456,7 +12494,7 @@
     </row>
     <row r="180" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000AC</v>
       </c>
       <c r="B180" s="69"/>
@@ -12470,7 +12508,7 @@
     </row>
     <row r="181" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000AD</v>
       </c>
       <c r="B181" s="69"/>
@@ -12484,7 +12522,7 @@
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000AE</v>
       </c>
       <c r="B182" s="69"/>
@@ -12498,7 +12536,7 @@
     </row>
     <row r="183" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000AF</v>
       </c>
       <c r="B183" s="69"/>
@@ -12512,7 +12550,7 @@
     </row>
     <row r="184" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B0</v>
       </c>
       <c r="B184" s="69"/>
@@ -12526,7 +12564,7 @@
     </row>
     <row r="185" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B1</v>
       </c>
       <c r="B185" s="69"/>
@@ -12540,7 +12578,7 @@
     </row>
     <row r="186" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B2</v>
       </c>
       <c r="B186" s="69"/>
@@ -12554,7 +12592,7 @@
     </row>
     <row r="187" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B3</v>
       </c>
       <c r="B187" s="69"/>
@@ -12568,7 +12606,7 @@
     </row>
     <row r="188" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B4</v>
       </c>
       <c r="B188" s="69"/>
@@ -12582,7 +12620,7 @@
     </row>
     <row r="189" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B5</v>
       </c>
       <c r="B189" s="69"/>
@@ -12596,7 +12634,7 @@
     </row>
     <row r="190" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B6</v>
       </c>
       <c r="B190" s="69"/>
@@ -12610,7 +12648,7 @@
     </row>
     <row r="191" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B7</v>
       </c>
       <c r="B191" s="69"/>
@@ -12624,7 +12662,7 @@
     </row>
     <row r="192" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B8</v>
       </c>
       <c r="B192" s="69"/>
@@ -12638,7 +12676,7 @@
     </row>
     <row r="193" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000B9</v>
       </c>
       <c r="B193" s="69"/>
@@ -12652,7 +12690,7 @@
     </row>
     <row r="194" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000BA</v>
       </c>
       <c r="B194" s="69"/>
@@ -12666,7 +12704,7 @@
     </row>
     <row r="195" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000BB</v>
       </c>
       <c r="B195" s="69"/>
@@ -12680,7 +12718,7 @@
     </row>
     <row r="196" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000BC</v>
       </c>
       <c r="B196" s="69"/>
@@ -12694,7 +12732,7 @@
     </row>
     <row r="197" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000BD</v>
       </c>
       <c r="B197" s="69"/>
@@ -12708,7 +12746,7 @@
     </row>
     <row r="198" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000BE</v>
       </c>
       <c r="B198" s="69"/>
@@ -12722,7 +12760,7 @@
     </row>
     <row r="199" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F000BF</v>
       </c>
       <c r="B199" s="69"/>
@@ -12755,7 +12793,7 @@
     </row>
     <row r="204" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="86" t="str">
-        <f t="shared" ref="A204:A266" si="4">DEC2HEX(HEX2DEC(A203)+1,6)</f>
+        <f t="shared" ref="A204:A266" si="5">DEC2HEX(HEX2DEC(A203)+1,6)</f>
         <v>F000C1</v>
       </c>
       <c r="B204" s="82"/>
@@ -12770,7 +12808,7 @@
     </row>
     <row r="205" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C2</v>
       </c>
       <c r="B205" s="82"/>
@@ -12784,7 +12822,7 @@
     </row>
     <row r="206" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C3</v>
       </c>
       <c r="B206" s="82"/>
@@ -12798,7 +12836,7 @@
     </row>
     <row r="207" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C4</v>
       </c>
       <c r="B207" s="82"/>
@@ -12812,7 +12850,7 @@
     </row>
     <row r="208" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C5</v>
       </c>
       <c r="B208" s="82"/>
@@ -12826,7 +12864,7 @@
     </row>
     <row r="209" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C6</v>
       </c>
       <c r="B209" s="82"/>
@@ -12840,7 +12878,7 @@
     </row>
     <row r="210" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C7</v>
       </c>
       <c r="B210" s="82"/>
@@ -12854,7 +12892,7 @@
     </row>
     <row r="211" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C8</v>
       </c>
       <c r="B211" s="82"/>
@@ -12868,7 +12906,7 @@
     </row>
     <row r="212" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000C9</v>
       </c>
       <c r="B212" s="82"/>
@@ -12882,7 +12920,7 @@
     </row>
     <row r="213" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000CA</v>
       </c>
       <c r="B213" s="82"/>
@@ -12896,7 +12934,7 @@
     </row>
     <row r="214" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000CB</v>
       </c>
       <c r="B214" s="82"/>
@@ -12910,7 +12948,7 @@
     </row>
     <row r="215" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000CC</v>
       </c>
       <c r="B215" s="82"/>
@@ -12924,7 +12962,7 @@
     </row>
     <row r="216" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000CD</v>
       </c>
       <c r="B216" s="82"/>
@@ -12938,7 +12976,7 @@
     </row>
     <row r="217" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000CE</v>
       </c>
       <c r="B217" s="82"/>
@@ -12952,7 +12990,7 @@
     </row>
     <row r="218" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000CF</v>
       </c>
       <c r="B218" s="82"/>
@@ -12969,7 +13007,7 @@
     </row>
     <row r="219" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D0</v>
       </c>
       <c r="B219" s="82"/>
@@ -12987,7 +13025,7 @@
     </row>
     <row r="220" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D1</v>
       </c>
       <c r="B220" s="82"/>
@@ -13005,7 +13043,7 @@
     </row>
     <row r="221" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D2</v>
       </c>
       <c r="B221" s="82"/>
@@ -13022,7 +13060,7 @@
     </row>
     <row r="222" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D3</v>
       </c>
       <c r="B222" s="82"/>
@@ -13039,7 +13077,7 @@
     </row>
     <row r="223" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D4</v>
       </c>
       <c r="B223" s="82"/>
@@ -13056,7 +13094,7 @@
     </row>
     <row r="224" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D5</v>
       </c>
       <c r="B224" s="82"/>
@@ -13073,7 +13111,7 @@
     </row>
     <row r="225" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D6</v>
       </c>
       <c r="B225" s="82"/>
@@ -13087,7 +13125,7 @@
     </row>
     <row r="226" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D7</v>
       </c>
       <c r="B226" s="82"/>
@@ -13101,7 +13139,7 @@
     </row>
     <row r="227" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D8</v>
       </c>
       <c r="B227" s="82"/>
@@ -13115,7 +13153,7 @@
     </row>
     <row r="228" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000D9</v>
       </c>
       <c r="B228" s="82"/>
@@ -13129,7 +13167,7 @@
     </row>
     <row r="229" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000DA</v>
       </c>
       <c r="B229" s="82"/>
@@ -13143,7 +13181,7 @@
     </row>
     <row r="230" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000DB</v>
       </c>
       <c r="B230" s="82"/>
@@ -13157,7 +13195,7 @@
     </row>
     <row r="231" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000DC</v>
       </c>
       <c r="B231" s="82"/>
@@ -13171,7 +13209,7 @@
     </row>
     <row r="232" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000DD</v>
       </c>
       <c r="B232" s="82"/>
@@ -13185,7 +13223,7 @@
     </row>
     <row r="233" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000DE</v>
       </c>
       <c r="B233" s="82"/>
@@ -13199,7 +13237,7 @@
     </row>
     <row r="234" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000DF</v>
       </c>
       <c r="B234" s="82"/>
@@ -13213,7 +13251,7 @@
     </row>
     <row r="235" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E0</v>
       </c>
       <c r="B235" s="82"/>
@@ -13227,7 +13265,7 @@
     </row>
     <row r="236" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E1</v>
       </c>
       <c r="B236" s="82"/>
@@ -13241,7 +13279,7 @@
     </row>
     <row r="237" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E2</v>
       </c>
       <c r="B237" s="82"/>
@@ -13255,7 +13293,7 @@
     </row>
     <row r="238" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E3</v>
       </c>
       <c r="B238" s="82"/>
@@ -13269,7 +13307,7 @@
     </row>
     <row r="239" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E4</v>
       </c>
       <c r="B239" s="82"/>
@@ -13283,7 +13321,7 @@
     </row>
     <row r="240" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E5</v>
       </c>
       <c r="B240" s="82"/>
@@ -13297,7 +13335,7 @@
     </row>
     <row r="241" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E6</v>
       </c>
       <c r="B241" s="82"/>
@@ -13311,7 +13349,7 @@
     </row>
     <row r="242" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E7</v>
       </c>
       <c r="B242" s="82"/>
@@ -13325,7 +13363,7 @@
     </row>
     <row r="243" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E8</v>
       </c>
       <c r="B243" s="82"/>
@@ -13339,7 +13377,7 @@
     </row>
     <row r="244" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000E9</v>
       </c>
       <c r="B244" s="82"/>
@@ -13353,7 +13391,7 @@
     </row>
     <row r="245" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000EA</v>
       </c>
       <c r="B245" s="82"/>
@@ -13367,7 +13405,7 @@
     </row>
     <row r="246" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000EB</v>
       </c>
       <c r="B246" s="82"/>
@@ -13381,7 +13419,7 @@
     </row>
     <row r="247" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000EC</v>
       </c>
       <c r="B247" s="82"/>
@@ -13395,7 +13433,7 @@
     </row>
     <row r="248" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000ED</v>
       </c>
       <c r="B248" s="82"/>
@@ -13409,7 +13447,7 @@
     </row>
     <row r="249" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000EE</v>
       </c>
       <c r="B249" s="82"/>
@@ -13423,7 +13461,7 @@
     </row>
     <row r="250" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000EF</v>
       </c>
       <c r="B250" s="82"/>
@@ -13437,7 +13475,7 @@
     </row>
     <row r="251" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F0</v>
       </c>
       <c r="B251" s="69"/>
@@ -13451,7 +13489,7 @@
     </row>
     <row r="252" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F1</v>
       </c>
       <c r="B252" s="69"/>
@@ -13465,7 +13503,7 @@
     </row>
     <row r="253" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F2</v>
       </c>
       <c r="B253" s="69"/>
@@ -13479,7 +13517,7 @@
     </row>
     <row r="254" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F3</v>
       </c>
       <c r="B254" s="69"/>
@@ -13493,7 +13531,7 @@
     </row>
     <row r="255" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F4</v>
       </c>
       <c r="B255" s="69"/>
@@ -13507,7 +13545,7 @@
     </row>
     <row r="256" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F5</v>
       </c>
       <c r="B256" s="69"/>
@@ -13521,7 +13559,7 @@
     </row>
     <row r="257" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F6</v>
       </c>
       <c r="B257" s="69"/>
@@ -13535,7 +13573,7 @@
     </row>
     <row r="258" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F7</v>
       </c>
       <c r="B258" s="69"/>
@@ -13549,7 +13587,7 @@
     </row>
     <row r="259" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F8</v>
       </c>
       <c r="B259" s="69"/>
@@ -13563,7 +13601,7 @@
     </row>
     <row r="260" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000F9</v>
       </c>
       <c r="B260" s="69"/>
@@ -13577,7 +13615,7 @@
     </row>
     <row r="261" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000FA</v>
       </c>
       <c r="B261" s="69"/>
@@ -13591,7 +13629,7 @@
     </row>
     <row r="262" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000FB</v>
       </c>
       <c r="B262" s="69"/>
@@ -13605,7 +13643,7 @@
     </row>
     <row r="263" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000FC</v>
       </c>
       <c r="B263" s="69"/>
@@ -13619,7 +13657,7 @@
     </row>
     <row r="264" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000FD</v>
       </c>
       <c r="B264" s="69"/>
@@ -13633,7 +13671,7 @@
     </row>
     <row r="265" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000FE</v>
       </c>
       <c r="B265" s="69"/>
@@ -13647,7 +13685,7 @@
     </row>
     <row r="266" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F000FF</v>
       </c>
       <c r="B266" s="69"/>
@@ -13661,18 +13699,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="C18:C25"/>
@@ -13682,6 +13708,18 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C49"/>
     <mergeCell ref="C34:C39"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13703,8 +13741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
